--- a/refs/heads/rc2/StructureDefinition-svc-composition.xlsx
+++ b/refs/heads/rc2/StructureDefinition-svc-composition.xlsx
@@ -737,7 +737,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>RC1</t>
+    <t>RC2</t>
   </si>
   <si>
     <t>Coding.code</t>

--- a/refs/heads/rc2/StructureDefinition-svc-composition.xlsx
+++ b/refs/heads/rc2/StructureDefinition-svc-composition.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$84</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3622" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="479">
   <si>
     <t>Path</t>
   </si>
@@ -149,7 +149,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>A set of resources composed into a single coherent clinical statement with clinical attestation</t>
+    <t>SVC Composition</t>
   </si>
   <si>
     <t>A set of healthcare-related information that is assembled together into a single logical package that provides a single coherent statement of meaning, establishes its own context and that has clinical attestation with regard to who is making the statement. A Composition defines the structure and narrative content necessary for a document. However, a Composition alone does not constitute a document. Rather, the Composition must be the first entry in a Bundle where Bundle.type=document, and any other resources referenced from Composition must be included as subsequent entries in the Bundle (for example Patient, Practitioner, Encounter, etc.).</t>
@@ -502,9 +502,6 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>urn:uuid</t>
-  </si>
-  <si>
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
@@ -613,10 +610,10 @@
     <t>Composition.type</t>
   </si>
   <si>
-    <t>Kind of composition (LOINC if possible)</t>
-  </si>
-  <si>
-    <t>Specifies the particular kind of composition (e.g. History and Physical, Discharge Summary, Progress Note). This usually equates to the purpose of making the composition.</t>
+    <t>Kind of composition ("Smart Vaccination Certificate")</t>
+  </si>
+  <si>
+    <t>Specifies that this composition refers to a Smart vaccination Certificate (Loinc "11369-6")</t>
   </si>
   <si>
     <t>For Composition type, LOINC is ubiquitous and strongly endorsed by HL7. Most implementation guides will require a specific LOINC code, or use LOINC as an extensible binding.</t>
@@ -625,6 +622,14 @@
     <t>Key metadata element describing the composition, used in searching/filtering.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="82593-5"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>Type of a composition.</t>
   </si>
   <si>
@@ -644,167 +649,6 @@
   </si>
   <si>
     <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Composition.type.id</t>
-  </si>
-  <si>
-    <t>Composition.type.extension</t>
-  </si>
-  <si>
-    <t>Composition.type.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Composition.type.coding.id</t>
-  </si>
-  <si>
-    <t>Composition.type.coding.extension</t>
-  </si>
-  <si>
-    <t>Composition.type.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>urn:EXAMPLE-who.int:smart-vaccine-certificate</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>Composition.type.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>Composition.type.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>RC2</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>Composition.type.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>Composition.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Composition.type.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Composition.category</t>
@@ -871,6 +715,89 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
+    <t>Composition.subject.id</t>
+  </si>
+  <si>
+    <t>Composition.subject.extension</t>
+  </si>
+  <si>
+    <t>Composition.subject.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>Composition.subject.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>Composition.subject.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>Composition.subject.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
     <t>Composition.encounter</t>
   </si>
   <si>
@@ -970,7 +897,7 @@
     <t>Composition.title</t>
   </si>
   <si>
-    <t>Human Readable name/title</t>
+    <t>Smart Vaccination Certificate</t>
   </si>
   <si>
     <t>Official human-readable label for the composition.</t>
@@ -1321,13 +1248,13 @@
     <t>Composition.section</t>
   </si>
   <si>
-    <t>Composition is broken into sections</t>
-  </si>
-  <si>
-    <t>The root of the sections that make up the composition.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:code.coding.code}
+    <t>Sections composing the SVC</t>
+  </si>
+  <si>
+    <t>The root of the sections that make up the SVC composition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:code}
 </t>
   </si>
   <si>
@@ -1550,43 +1477,26 @@
     <t>Section_Vaccinations</t>
   </si>
   <si>
-    <t>Composition.section.code.id</t>
-  </si>
-  <si>
-    <t>Composition.section.code.extension</t>
-  </si>
-  <si>
-    <t>Composition.section.code.coding</t>
-  </si>
-  <si>
-    <t>Composition.section.code.coding.id</t>
-  </si>
-  <si>
-    <t>Composition.section.code.coding.extension</t>
-  </si>
-  <si>
-    <t>Composition.section.code.coding.system</t>
-  </si>
-  <si>
-    <t>http://loinc.org</t>
-  </si>
-  <si>
-    <t>Composition.section.code.coding.version</t>
-  </si>
-  <si>
-    <t>Composition.section.code.coding.code</t>
-  </si>
-  <si>
-    <t>11369-6</t>
-  </si>
-  <si>
-    <t>Composition.section.code.coding.display</t>
-  </si>
-  <si>
-    <t>Composition.section.code.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Composition.section.code.text</t>
+    <t>Vaccinations Section</t>
+  </si>
+  <si>
+    <t>Vaccination Section lists the relvant vaccinations received by the patient</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="11369-6"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Patient's vaccination history.</t>
+  </si>
+  <si>
+    <t>It defines the patient's current vaccination  history.
+The primary use case for the Vaccination Section is to enable communication of a patient's vaccination status.
+It may contain the entire vaccination history that is relevant to the period of time being summarized. This entry shall be used to document that no information about vaccination is available, or that no vaccinations are known.</t>
   </si>
   <si>
     <t xml:space="preserve">type:null}
@@ -1746,7 +1656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN100"/>
+  <dimension ref="A1:AN84"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1755,7 +1665,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.83203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="26.21875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1765,7 +1675,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="87.1015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="73.3203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1781,7 +1691,7 @@
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="73.84375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="23.96875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
@@ -3517,7 +3427,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>151</v>
       </c>
@@ -3527,13 +3437,13 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>41</v>
@@ -3564,46 +3474,46 @@
         <v>41</v>
       </c>
       <c r="R16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S16" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="S16" t="s" s="2">
+      <c r="T16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3621,7 +3531,7 @@
         <v>41</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>41</v>
@@ -3635,7 +3545,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3643,7 +3553,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>53</v>
@@ -3661,13 +3571,13 @@
         <v>55</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3681,43 +3591,43 @@
         <v>41</v>
       </c>
       <c r="S17" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3735,7 +3645,7 @@
         <v>41</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>41</v>
@@ -3749,7 +3659,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3772,13 +3682,13 @@
         <v>54</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3829,7 +3739,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3847,7 +3757,7 @@
         <v>41</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>41</v>
@@ -3861,7 +3771,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3884,16 +3794,16 @@
         <v>54</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3943,7 +3853,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3961,21 +3871,21 @@
         <v>41</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" hidden="true">
-      <c r="A20" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3989,7 +3899,7 @@
         <v>53</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>54</v>
@@ -4001,16 +3911,16 @@
         <v>73</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>41</v>
@@ -4038,11 +3948,11 @@
         <v>136</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Y20" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="Z20" t="s" s="2">
         <v>41</v>
       </c>
@@ -4059,7 +3969,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>53</v>
@@ -4074,24 +3984,24 @@
         <v>65</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>124</v>
       </c>
       <c r="AM20" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>190</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4117,16 +4027,16 @@
         <v>142</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>41</v>
@@ -4136,7 +4046,7 @@
         <v>41</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>41</v>
@@ -4175,7 +4085,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>53</v>
@@ -4218,7 +4128,7 @@
         <v>42</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>41</v>
@@ -4227,19 +4137,23 @@
         <v>41</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>121</v>
+        <v>204</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>41</v>
       </c>
@@ -4263,13 +4177,13 @@
         <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>41</v>
@@ -4287,73 +4201,75 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="AM22" t="s" s="2">
-        <v>41</v>
+        <v>213</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>41</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>99</v>
+        <v>215</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>100</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>126</v>
+        <v>217</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>41</v>
       </c>
@@ -4389,51 +4305,51 @@
         <v>41</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>124</v>
+        <v>220</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>41</v>
+        <v>222</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>41</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4444,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>41</v>
@@ -4453,23 +4369,19 @@
         <v>41</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>206</v>
+        <v>55</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>207</v>
+        <v>121</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>41</v>
       </c>
@@ -4517,25 +4429,25 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>211</v>
+        <v>123</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>212</v>
+        <v>124</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>41</v>
@@ -4549,18 +4461,18 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>41</v>
@@ -4572,15 +4484,17 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>41</v>
@@ -4617,31 +4531,31 @@
         <v>41</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>41</v>
@@ -4659,41 +4573,41 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>100</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>126</v>
+        <v>228</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>102</v>
+        <v>229</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4731,37 +4645,37 @@
         <v>41</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>41</v>
+        <v>231</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>41</v>
@@ -4775,7 +4689,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4801,17 +4715,15 @@
         <v>67</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>41</v>
       </c>
@@ -4820,7 +4732,7 @@
         <v>41</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>220</v>
+        <v>41</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>41</v>
@@ -4835,13 +4747,13 @@
         <v>41</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>41</v>
+        <v>237</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>41</v>
@@ -4859,7 +4771,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4877,7 +4789,7 @@
         <v>41</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>222</v>
+        <v>96</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>41</v>
@@ -4891,7 +4803,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4914,16 +4826,16 @@
         <v>54</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4973,7 +4885,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4991,7 +4903,7 @@
         <v>41</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>41</v>
@@ -5005,7 +4917,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5028,18 +4940,18 @@
         <v>54</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>41</v>
       </c>
@@ -5048,7 +4960,7 @@
         <v>41</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>233</v>
+        <v>41</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>41</v>
@@ -5087,7 +4999,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -5105,7 +5017,7 @@
         <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>199</v>
+        <v>96</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>41</v>
@@ -5119,7 +5031,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5142,17 +5054,17 @@
         <v>54</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>55</v>
+        <v>251</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>41</v>
@@ -5201,7 +5113,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5216,24 +5128,24 @@
         <v>65</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>41</v>
+        <v>255</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>41</v>
+        <v>257</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>41</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5241,7 +5153,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>53</v>
@@ -5256,19 +5168,19 @@
         <v>54</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>41</v>
@@ -5317,10 +5229,10 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>53</v>
@@ -5332,24 +5244,24 @@
         <v>65</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>41</v>
+        <v>266</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>41</v>
+        <v>268</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>41</v>
+        <v>269</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>41</v>
+        <v>270</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5357,13 +5269,13 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>41</v>
@@ -5372,19 +5284,17 @@
         <v>54</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>55</v>
+        <v>272</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>41</v>
@@ -5433,13 +5343,13 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>41</v>
@@ -5448,24 +5358,24 @@
         <v>65</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>41</v>
+        <v>276</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>41</v>
+        <v>278</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>41</v>
+        <v>279</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>41</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5473,13 +5383,13 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>41</v>
@@ -5488,20 +5398,18 @@
         <v>54</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>41</v>
       </c>
@@ -5510,7 +5418,7 @@
         <v>41</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>41</v>
+        <v>285</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>41</v>
@@ -5525,13 +5433,13 @@
         <v>41</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>261</v>
+        <v>41</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>262</v>
+        <v>41</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>41</v>
@@ -5549,13 +5457,13 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>41</v>
@@ -5564,24 +5472,24 @@
         <v>65</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>264</v>
+        <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>124</v>
+        <v>287</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>202</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5589,7 +5497,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>53</v>
@@ -5604,20 +5512,18 @@
         <v>54</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>268</v>
+        <v>73</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>41</v>
       </c>
@@ -5641,13 +5547,13 @@
         <v>41</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>41</v>
+        <v>293</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>41</v>
+        <v>294</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>41</v>
@@ -5665,7 +5571,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5683,21 +5589,21 @@
         <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>276</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5708,7 +5614,7 @@
         <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>41</v>
@@ -5717,20 +5623,22 @@
         <v>41</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="N35" t="s" s="2">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>41</v>
@@ -5779,13 +5687,13 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>41</v>
@@ -5794,24 +5702,24 @@
         <v>65</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>282</v>
+        <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>286</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5819,7 +5727,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>53</v>
@@ -5831,23 +5739,19 @@
         <v>41</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>288</v>
+        <v>55</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>289</v>
+        <v>121</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>41</v>
       </c>
@@ -5895,10 +5799,10 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>287</v>
+        <v>123</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>53</v>
@@ -5907,35 +5811,35 @@
         <v>41</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>293</v>
+        <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>294</v>
+        <v>124</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>295</v>
+        <v>41</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>296</v>
+        <v>41</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>297</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>43</v>
@@ -5947,21 +5851,21 @@
         <v>41</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>299</v>
+        <v>99</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>41</v>
       </c>
@@ -6009,10 +5913,10 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>298</v>
+        <v>130</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>43</v>
@@ -6021,22 +5925,22 @@
         <v>41</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>303</v>
+        <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>304</v>
+        <v>124</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>305</v>
+        <v>41</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>306</v>
+        <v>41</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>307</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" hidden="true">
@@ -6045,37 +5949,39 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>41</v>
+        <v>309</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>41</v>
       </c>
@@ -6084,70 +5990,70 @@
         <v>41</v>
       </c>
       <c r="R38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE38" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="S38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>308</v>
-      </c>
       <c r="AF38" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>313</v>
+        <v>96</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>314</v>
+        <v>41</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>315</v>
+        <v>41</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>41</v>
@@ -6155,7 +6061,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6163,7 +6069,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>53</v>
@@ -6175,21 +6081,21 @@
         <v>41</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>41</v>
       </c>
@@ -6216,10 +6122,10 @@
         <v>136</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>41</v>
@@ -6237,10 +6143,10 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>53</v>
@@ -6255,13 +6161,13 @@
         <v>41</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>323</v>
+        <v>41</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>41</v>
@@ -6269,7 +6175,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6280,7 +6186,7 @@
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>41</v>
@@ -6292,19 +6198,17 @@
         <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>325</v>
+        <v>261</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>41</v>
@@ -6353,13 +6257,13 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>41</v>
@@ -6371,13 +6275,13 @@
         <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>332</v>
+        <v>41</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>41</v>
@@ -6385,7 +6289,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6408,16 +6312,18 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>55</v>
+        <v>328</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>121</v>
+        <v>329</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>122</v>
+        <v>330</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>41</v>
       </c>
@@ -6465,7 +6371,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>123</v>
+        <v>327</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6477,38 +6383,38 @@
         <v>41</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>124</v>
+        <v>332</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>41</v>
+        <v>333</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>41</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>41</v>
@@ -6517,21 +6423,23 @@
         <v>41</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>100</v>
+        <v>336</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>126</v>
+        <v>337</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>41</v>
       </c>
@@ -6579,31 +6487,31 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>130</v>
+        <v>335</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>124</v>
+        <v>340</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>41</v>
+        <v>341</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>41</v>
+        <v>342</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>41</v>
@@ -6611,11 +6519,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>336</v>
+        <v>41</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6628,26 +6536,24 @@
         <v>41</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>99</v>
+        <v>298</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>41</v>
       </c>
@@ -6695,7 +6601,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6707,19 +6613,19 @@
         <v>41</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>96</v>
+        <v>347</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>41</v>
+        <v>348</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>41</v>
+        <v>349</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>41</v>
@@ -6727,7 +6633,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6735,7 +6641,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>53</v>
@@ -6750,18 +6656,16 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>341</v>
+        <v>121</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>342</v>
+        <v>122</v>
       </c>
       <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>343</v>
-      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>41</v>
       </c>
@@ -6785,13 +6689,13 @@
         <v>41</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>344</v>
+        <v>41</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>345</v>
+        <v>41</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>41</v>
@@ -6809,10 +6713,10 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>340</v>
+        <v>123</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>53</v>
@@ -6821,16 +6725,16 @@
         <v>41</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>346</v>
+        <v>124</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>347</v>
+        <v>41</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>41</v>
@@ -6841,18 +6745,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>41</v>
@@ -6864,18 +6768,18 @@
         <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>288</v>
+        <v>99</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>349</v>
+        <v>100</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>41</v>
       </c>
@@ -6923,28 +6827,28 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>348</v>
+        <v>130</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>352</v>
+        <v>124</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>353</v>
+        <v>41</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>41</v>
@@ -6955,40 +6859,42 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>41</v>
+        <v>309</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>355</v>
+        <v>99</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N46" t="s" s="2">
-        <v>358</v>
+        <v>108</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>41</v>
@@ -7037,39 +6943,39 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>354</v>
+        <v>312</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>359</v>
+        <v>96</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>360</v>
+        <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>361</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7077,7 +6983,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>53</v>
@@ -7089,23 +6995,21 @@
         <v>41</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>174</v>
+        <v>73</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>41</v>
       </c>
@@ -7129,13 +7033,13 @@
         <v>41</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>41</v>
+        <v>357</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>41</v>
+        <v>358</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>41</v>
@@ -7153,10 +7057,10 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>53</v>
@@ -7171,13 +7075,13 @@
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>41</v>
@@ -7185,7 +7089,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7193,10 +7097,10 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>41</v>
@@ -7208,17 +7112,15 @@
         <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>41</v>
@@ -7267,13 +7169,13 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>41</v>
@@ -7285,13 +7187,13 @@
         <v>41</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>41</v>
@@ -7299,7 +7201,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7310,7 +7212,7 @@
         <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>41</v>
@@ -7319,19 +7221,23 @@
         <v>41</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>55</v>
+        <v>298</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>121</v>
+        <v>370</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>41</v>
       </c>
@@ -7379,31 +7285,31 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>123</v>
+        <v>369</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>124</v>
+        <v>374</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>41</v>
+        <v>375</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>41</v>
+        <v>376</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>41</v>
@@ -7411,18 +7317,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>41</v>
@@ -7434,17 +7340,15 @@
         <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>41</v>
@@ -7493,19 +7397,19 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>41</v>
@@ -7525,11 +7429,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>336</v>
+        <v>98</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7542,26 +7446,24 @@
         <v>41</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>337</v>
+        <v>100</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>338</v>
+        <v>126</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N51" t="s" s="2">
-        <v>108</v>
-      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>41</v>
       </c>
@@ -7609,7 +7511,7 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>339</v>
+        <v>130</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7627,7 +7529,7 @@
         <v>41</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>41</v>
@@ -7641,41 +7543,43 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>41</v>
+        <v>309</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>381</v>
+        <v>310</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>382</v>
+        <v>311</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>41</v>
       </c>
@@ -7699,13 +7603,13 @@
         <v>41</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>384</v>
+        <v>41</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>385</v>
+        <v>41</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>41</v>
@@ -7723,31 +7627,31 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>380</v>
+        <v>312</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>386</v>
+        <v>96</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>387</v>
+        <v>41</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>388</v>
+        <v>41</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>41</v>
@@ -7755,7 +7659,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7763,10 +7667,10 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>41</v>
@@ -7775,18 +7679,20 @@
         <v>41</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>390</v>
+        <v>142</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>41</v>
@@ -7811,13 +7717,13 @@
         <v>41</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>41</v>
+        <v>384</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>41</v>
@@ -7835,13 +7741,13 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>41</v>
@@ -7853,13 +7759,13 @@
         <v>41</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>393</v>
+        <v>200</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>394</v>
+        <v>200</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>41</v>
@@ -7867,7 +7773,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7878,7 +7784,7 @@
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>41</v>
@@ -7890,20 +7796,16 @@
         <v>54</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>325</v>
+        <v>167</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>41</v>
       </c>
@@ -7951,13 +7853,13 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>41</v>
@@ -7969,13 +7871,13 @@
         <v>41</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>401</v>
+        <v>268</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>402</v>
+        <v>268</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>41</v>
@@ -7983,7 +7885,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7994,7 +7896,7 @@
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>41</v>
@@ -8003,16 +7905,16 @@
         <v>41</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>55</v>
+        <v>392</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>121</v>
+        <v>393</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>122</v>
+        <v>394</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8063,28 +7965,28 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>123</v>
+        <v>391</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>41</v>
@@ -8095,15 +7997,15 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>43</v>
@@ -8118,17 +8020,15 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>99</v>
+        <v>298</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>100</v>
+        <v>397</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>41</v>
@@ -8165,19 +8065,17 @@
         <v>41</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="AB56" s="2"/>
       <c r="AC56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>130</v>
+        <v>396</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8189,16 +8087,16 @@
         <v>41</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>104</v>
+        <v>400</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>124</v>
+        <v>401</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>41</v>
+        <v>402</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>41</v>
@@ -8209,43 +8107,39 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>336</v>
+        <v>41</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>337</v>
+        <v>121</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>41</v>
       </c>
@@ -8293,25 +8187,25 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>339</v>
+        <v>123</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>41</v>
@@ -8325,11 +8219,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8345,19 +8239,19 @@
         <v>41</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>408</v>
+        <v>100</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>409</v>
+        <v>126</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>410</v>
+        <v>102</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8383,13 +8277,13 @@
         <v>41</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>261</v>
+        <v>41</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>411</v>
+        <v>41</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>412</v>
+        <v>41</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>41</v>
@@ -8407,7 +8301,7 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>407</v>
+        <v>130</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8419,19 +8313,19 @@
         <v>41</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>413</v>
+        <v>41</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>41</v>
@@ -8439,39 +8333,43 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>41</v>
+        <v>309</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>415</v>
+        <v>310</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>41</v>
       </c>
@@ -8519,31 +8417,31 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>414</v>
+        <v>312</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>295</v>
+        <v>96</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>295</v>
+        <v>41</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>417</v>
+        <v>41</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>41</v>
@@ -8551,18 +8449,18 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>41</v>
+        <v>407</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>41</v>
@@ -8571,19 +8469,23 @@
         <v>41</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>419</v>
+        <v>55</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>41</v>
       </c>
@@ -8631,13 +8533,13 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>41</v>
@@ -8649,10 +8551,10 @@
         <v>41</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>422</v>
+        <v>286</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>124</v>
+        <v>287</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>41</v>
@@ -8663,7 +8565,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8671,10 +8573,10 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>41</v>
@@ -8686,16 +8588,20 @@
         <v>41</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>325</v>
+        <v>142</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>41</v>
       </c>
@@ -8719,50 +8625,52 @@
         <v>41</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>41</v>
+        <v>417</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>41</v>
+        <v>418</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AB61" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC61" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>427</v>
+        <v>65</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>428</v>
+        <v>199</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>41</v>
@@ -8773,7 +8681,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8784,7 +8692,7 @@
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>41</v>
@@ -8796,16 +8704,18 @@
         <v>41</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>55</v>
+        <v>420</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>121</v>
+        <v>421</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>122</v>
+        <v>422</v>
       </c>
       <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>41</v>
       </c>
@@ -8853,50 +8763,50 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>123</v>
+        <v>419</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>124</v>
+        <v>277</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>41</v>
+        <v>278</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>41</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>41</v>
@@ -8908,16 +8818,16 @@
         <v>41</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>99</v>
+        <v>392</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>100</v>
+        <v>424</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>126</v>
+        <v>425</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>102</v>
+        <v>426</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8967,28 +8877,28 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>130</v>
+        <v>423</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>41</v>
+        <v>427</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>41</v>
@@ -8999,43 +8909,41 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>336</v>
+        <v>41</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>337</v>
+        <v>429</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>338</v>
+        <v>430</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>41</v>
       </c>
@@ -9083,28 +8991,28 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>339</v>
+        <v>428</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>41</v>
+        <v>432</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>96</v>
+        <v>433</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>41</v>
+        <v>433</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>41</v>
@@ -9115,11 +9023,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>434</v>
+        <v>41</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9138,7 +9046,7 @@
         <v>41</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>435</v>
@@ -9175,13 +9083,13 @@
         <v>41</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>41</v>
+        <v>439</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>41</v>
+        <v>440</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>41</v>
@@ -9199,7 +9107,7 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9217,21 +9125,21 @@
         <v>41</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>313</v>
+        <v>441</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>314</v>
+        <v>124</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>41</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9257,16 +9165,16 @@
         <v>142</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>41</v>
@@ -9291,13 +9199,13 @@
         <v>41</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>41</v>
@@ -9315,7 +9223,7 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9333,10 +9241,10 @@
         <v>41</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>199</v>
+        <v>449</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>41</v>
@@ -9347,7 +9255,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9370,18 +9278,18 @@
         <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>447</v>
+        <v>392</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>41</v>
       </c>
@@ -9429,7 +9337,7 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9438,7 +9346,7 @@
         <v>43</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>41</v>
+        <v>454</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>65</v>
@@ -9447,21 +9355,21 @@
         <v>41</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>304</v>
+        <v>455</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>305</v>
+        <v>456</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>307</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9484,18 +9392,20 @@
         <v>41</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>419</v>
+        <v>142</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>41</v>
       </c>
@@ -9519,13 +9429,13 @@
         <v>41</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>41</v>
+        <v>462</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>41</v>
+        <v>463</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>41</v>
@@ -9543,7 +9453,7 @@
         <v>41</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9552,7 +9462,7 @@
         <v>53</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>41</v>
+        <v>454</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>65</v>
@@ -9561,10 +9471,10 @@
         <v>41</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>41</v>
+        <v>464</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>454</v>
+        <v>124</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>41</v>
@@ -9575,7 +9485,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9586,7 +9496,7 @@
         <v>42</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>41</v>
@@ -9598,16 +9508,16 @@
         <v>41</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9657,16 +9567,16 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>459</v>
+        <v>432</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>65</v>
@@ -9675,10 +9585,10 @@
         <v>41</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>460</v>
+        <v>401</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>41</v>
@@ -9687,23 +9597,25 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B70" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="C70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>41</v>
@@ -9712,20 +9624,16 @@
         <v>41</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>73</v>
+        <v>298</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>41</v>
       </c>
@@ -9749,13 +9657,13 @@
         <v>41</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>466</v>
+        <v>41</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>467</v>
+        <v>41</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>41</v>
@@ -9773,39 +9681,39 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>461</v>
+        <v>396</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>65</v>
+        <v>400</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>468</v>
+        <v>401</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>124</v>
+        <v>402</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>202</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>469</v>
+        <v>403</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9828,20 +9736,16 @@
         <v>41</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>470</v>
+        <v>121</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>41</v>
       </c>
@@ -9865,13 +9769,13 @@
         <v>41</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>474</v>
+        <v>41</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>475</v>
+        <v>41</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>41</v>
@@ -9889,7 +9793,7 @@
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>469</v>
+        <v>123</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -9901,16 +9805,16 @@
         <v>41</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>476</v>
+        <v>124</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>41</v>
@@ -9921,11 +9825,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>477</v>
+        <v>404</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9944,16 +9848,16 @@
         <v>41</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>419</v>
+        <v>99</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>478</v>
+        <v>100</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>479</v>
+        <v>126</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>480</v>
+        <v>102</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10003,7 +9907,7 @@
         <v>41</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>477</v>
+        <v>130</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -10012,19 +9916,19 @@
         <v>43</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>481</v>
+        <v>41</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>482</v>
+        <v>124</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>483</v>
+        <v>41</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>41</v>
@@ -10035,42 +9939,42 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>484</v>
+        <v>405</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>41</v>
+        <v>309</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>485</v>
+        <v>310</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>486</v>
+        <v>311</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>487</v>
+        <v>102</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>488</v>
+        <v>108</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>41</v>
@@ -10095,13 +9999,13 @@
         <v>41</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>489</v>
+        <v>41</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>490</v>
+        <v>41</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>41</v>
@@ -10119,28 +10023,28 @@
         <v>41</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>484</v>
+        <v>312</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>481</v>
+        <v>41</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>491</v>
+        <v>96</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>41</v>
@@ -10151,18 +10055,18 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>492</v>
+        <v>406</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>41</v>
+        <v>407</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>41</v>
@@ -10174,18 +10078,20 @@
         <v>41</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>493</v>
+        <v>408</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>494</v>
+        <v>409</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>41</v>
       </c>
@@ -10233,16 +10139,16 @@
         <v>41</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>492</v>
+        <v>406</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>459</v>
+        <v>41</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>65</v>
@@ -10251,10 +10157,10 @@
         <v>41</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>428</v>
+        <v>286</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>496</v>
+        <v>287</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>41</v>
@@ -10263,13 +10169,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>497</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
         <v>41</v>
       </c>
@@ -10281,7 +10185,7 @@
         <v>53</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>41</v>
@@ -10290,16 +10194,20 @@
         <v>41</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>325</v>
+        <v>142</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>41</v>
       </c>
@@ -10308,7 +10216,7 @@
         <v>41</v>
       </c>
       <c r="R75" t="s" s="2">
-        <v>41</v>
+        <v>473</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>41</v>
@@ -10323,13 +10231,13 @@
         <v>41</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>41</v>
+        <v>417</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>41</v>
+        <v>418</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>41</v>
@@ -10347,28 +10255,28 @@
         <v>41</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>427</v>
+        <v>65</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>428</v>
+        <v>199</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>41</v>
@@ -10379,7 +10287,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10390,7 +10298,7 @@
         <v>42</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>41</v>
@@ -10402,16 +10310,18 @@
         <v>41</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>55</v>
+        <v>420</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>121</v>
+        <v>421</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>122</v>
+        <v>422</v>
       </c>
       <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+      <c r="N76" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>41</v>
       </c>
@@ -10459,50 +10369,50 @@
         <v>41</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>123</v>
+        <v>419</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>124</v>
+        <v>277</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>41</v>
+        <v>278</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>41</v>
+        <v>280</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>41</v>
@@ -10514,16 +10424,16 @@
         <v>41</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>99</v>
+        <v>392</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>100</v>
+        <v>424</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>126</v>
+        <v>425</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>102</v>
+        <v>426</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10573,28 +10483,28 @@
         <v>41</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>130</v>
+        <v>423</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>41</v>
+        <v>427</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>41</v>
@@ -10605,43 +10515,41 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>336</v>
+        <v>41</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>337</v>
+        <v>429</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>338</v>
+        <v>430</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>41</v>
       </c>
@@ -10689,28 +10597,28 @@
         <v>41</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>339</v>
+        <v>428</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>41</v>
+        <v>432</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>96</v>
+        <v>433</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>41</v>
+        <v>433</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>41</v>
@@ -10721,11 +10629,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>434</v>
+        <v>41</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10744,7 +10652,7 @@
         <v>41</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>435</v>
@@ -10781,13 +10689,13 @@
         <v>41</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>41</v>
+        <v>439</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>41</v>
+        <v>440</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>41</v>
@@ -10805,7 +10713,7 @@
         <v>41</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -10823,21 +10731,21 @@
         <v>41</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>313</v>
+        <v>441</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>314</v>
+        <v>124</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>41</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10851,7 +10759,7 @@
         <v>53</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>41</v>
@@ -10863,16 +10771,16 @@
         <v>142</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>41</v>
@@ -10897,13 +10805,13 @@
         <v>41</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>41</v>
@@ -10921,7 +10829,7 @@
         <v>41</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -10939,10 +10847,10 @@
         <v>41</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>199</v>
+        <v>449</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>41</v>
@@ -10953,7 +10861,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>498</v>
+        <v>450</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10961,13 +10869,13 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>41</v>
@@ -10976,15 +10884,17 @@
         <v>41</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>55</v>
+        <v>392</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>121</v>
+        <v>474</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M81" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>41</v>
@@ -11021,40 +10931,38 @@
         <v>41</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="AB81" s="2"/>
       <c r="AC81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>123</v>
+        <v>450</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>41</v>
+        <v>454</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>124</v>
+        <v>455</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>41</v>
+        <v>456</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>41</v>
@@ -11063,13 +10971,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B82" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="C82" t="s" s="2">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11079,7 +10989,7 @@
         <v>43</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>41</v>
@@ -11088,16 +10998,16 @@
         <v>41</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>99</v>
+        <v>478</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>100</v>
+        <v>451</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>126</v>
+        <v>452</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>102</v>
+        <v>453</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11135,19 +11045,19 @@
         <v>41</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>130</v>
+        <v>450</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -11156,19 +11066,19 @@
         <v>43</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>41</v>
+        <v>454</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>124</v>
+        <v>455</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>41</v>
+        <v>456</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>41</v>
@@ -11179,7 +11089,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>500</v>
+        <v>457</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11190,7 +11100,7 @@
         <v>42</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>41</v>
@@ -11199,22 +11109,22 @@
         <v>41</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>206</v>
+        <v>142</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>207</v>
+        <v>458</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>208</v>
+        <v>459</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>209</v>
+        <v>460</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>210</v>
+        <v>461</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>41</v>
@@ -11239,13 +11149,13 @@
         <v>41</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>41</v>
+        <v>462</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>41</v>
+        <v>463</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>41</v>
@@ -11263,16 +11173,16 @@
         <v>41</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>211</v>
+        <v>457</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>41</v>
+        <v>454</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>65</v>
@@ -11281,10 +11191,10 @@
         <v>41</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>212</v>
+        <v>464</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>41</v>
@@ -11295,7 +11205,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>501</v>
+        <v>465</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11306,7 +11216,7 @@
         <v>42</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>41</v>
@@ -11318,15 +11228,17 @@
         <v>41</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>121</v>
+        <v>466</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M84" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>41</v>
@@ -11375,1874 +11287,38 @@
         <v>41</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>123</v>
+        <v>465</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>41</v>
+        <v>432</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>124</v>
+        <v>401</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>41</v>
+        <v>469</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M92" s="2"/>
-      <c r="N92" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AB97" s="2"/>
-      <c r="AC97" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="C98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN100" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN100">
+  <autoFilter ref="A1:AN84">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13252,7 +11328,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI99">
+  <conditionalFormatting sqref="A2:AI83">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/refs/heads/rc2/StructureDefinition-svc-composition.xlsx
+++ b/refs/heads/rc2/StructureDefinition-svc-composition.xlsx
@@ -1499,7 +1499,7 @@
 It may contain the entire vaccination history that is relevant to the period of time being summarized. This entry shall be used to document that no information about vaccination is available, or that no vaccinations are known.</t>
   </si>
   <si>
-    <t xml:space="preserve">type:null}
+    <t xml:space="preserve">type:$this}
 </t>
   </si>
   <si>

--- a/refs/heads/rc2/StructureDefinition-svc-composition.xlsx
+++ b/refs/heads/rc2/StructureDefinition-svc-composition.xlsx
@@ -687,7 +687,7 @@
     <t>Composition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-patient)
+    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-patient)
 </t>
   </si>
   <si>
@@ -866,7 +866,7 @@
     <t>Composition.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-organization)
+    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-organization)
 </t>
   </si>
   <si>
@@ -1506,7 +1506,7 @@
     <t>Section_Vaccinations_Entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-immunization)
+    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-immunization)
 </t>
   </si>
 </sst>
